--- a/results.xlsx
+++ b/results.xlsx
@@ -38,7 +38,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -80,6 +80,16 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -191,7 +201,7 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF004586"/>
@@ -207,7 +217,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart57.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -322,11 +332,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="36224055"/>
-        <c:axId val="96589966"/>
+        <c:axId val="28261589"/>
+        <c:axId val="81076485"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="36224055"/>
+        <c:axId val="28261589"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -399,14 +409,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96589966"/>
+        <c:crossAx val="81076485"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96589966"/>
+        <c:axId val="81076485"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -488,7 +498,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36224055"/>
+        <c:crossAx val="28261589"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -515,7 +525,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart58.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -612,11 +622,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="66853036"/>
-        <c:axId val="30596420"/>
+        <c:axId val="63190448"/>
+        <c:axId val="30777380"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="66853036"/>
+        <c:axId val="63190448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -689,14 +699,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30596420"/>
+        <c:crossAx val="30777380"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="30596420"/>
+        <c:axId val="30777380"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -778,7 +788,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66853036"/>
+        <c:crossAx val="63190448"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -805,7 +815,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart59.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -902,11 +912,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="93041700"/>
-        <c:axId val="55050472"/>
+        <c:axId val="64458336"/>
+        <c:axId val="61613629"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93041700"/>
+        <c:axId val="64458336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -979,14 +989,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55050472"/>
+        <c:crossAx val="61613629"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55050472"/>
+        <c:axId val="61613629"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1068,7 +1078,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93041700"/>
+        <c:crossAx val="64458336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1095,7 +1105,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart60.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1192,11 +1202,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="72919657"/>
-        <c:axId val="90991754"/>
+        <c:axId val="79086542"/>
+        <c:axId val="46326071"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="72919657"/>
+        <c:axId val="79086542"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1269,14 +1279,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90991754"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="46326071"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90991754"/>
+        <c:axId val="46326071"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1358,7 +1368,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72919657"/>
+        <c:crossAx val="79086542"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1385,6 +1395,1582 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart61.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>lockopts</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>evc</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>evc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$4:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.201276</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2053736</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2183518</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2500994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.336508</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>vc</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$76:$M$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1992406</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2025486</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2153552</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2986</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6306282</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="26988130"/>
+        <c:axId val="94508962"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="26988130"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>The number of processes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="94508962"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="94508962"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Execution time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="26988130"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart62.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>lockopts</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>evc</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>evc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$9:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>15384</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16677.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23250.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31891.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>vc</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$81:$M$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>15184.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16475.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19610.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27010.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47876</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="20291066"/>
+        <c:axId val="48036496"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="20291066"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>The number of processes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="48036496"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="48036496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Memory usage (kB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="20291066"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart63.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>BTbroadcast</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>evc</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>evc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$40:$M$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.016342</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0372486</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0759478</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1483914</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3683284</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>vc</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$88:$M$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0093036</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.021435</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.055028</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1570258</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.472473</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="80866978"/>
+        <c:axId val="75216423"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="80866978"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>The number of processes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="75216423"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="75216423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Execution time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80866978"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart64.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>BTbroadcast</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>evc</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>evc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$45:$M$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2644</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3979.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6248</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10779.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19796.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>vc</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$93:$M$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2449.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4065.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7747.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18597.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51939.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="75722284"/>
+        <c:axId val="5715326"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="75722284"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>The number of processes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="5715326"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="5715326"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Memory usage (kB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="75722284"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -1396,9 +2982,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>773280</xdr:colOff>
+      <xdr:colOff>772920</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>152280</xdr:rowOff>
+      <xdr:rowOff>151920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1407,7 +2993,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="39600" y="2275560"/>
-        <a:ext cx="5676840" cy="3241080"/>
+        <a:ext cx="5571720" cy="3240720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1426,9 +3012,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1436,8 +3022,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5744160" y="2275200"/>
-        <a:ext cx="5669280" cy="3241080"/>
+        <a:off x="5620320" y="2275200"/>
+        <a:ext cx="5535720" cy="3240720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1455,10 +3041,10 @@
       <xdr:rowOff>13680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>786240</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4680</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>1800</xdr:rowOff>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1467,7 +3053,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="51480" y="8141400"/>
-        <a:ext cx="5677920" cy="3239280"/>
+        <a:ext cx="5572800" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1486,9 +3072,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>109080</xdr:colOff>
+      <xdr:colOff>108720</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>18720</xdr:rowOff>
+      <xdr:rowOff>18360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1496,12 +3082,132 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5783760" y="8156520"/>
-        <a:ext cx="5669280" cy="3241080"/>
+        <a:off x="5659920" y="8156520"/>
+        <a:ext cx="5535720" cy="3240720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>55440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>140040</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>43920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="15986160"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>445680</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>7560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>738000</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6065280" y="15938280"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>64440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>140040</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>52920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="19571400"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>484920</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>36360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>777240</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>24840</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6104520" y="19543320"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1517,15 +3223,13 @@
   </sheetPr>
   <dimension ref="B3:M97"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J73" activeCellId="0" sqref="J73"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H120" activeCellId="0" sqref="H120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2295918367347"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/results.xlsx
+++ b/results.xlsx
@@ -61,14 +61,13 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF404040"/>
+      <sz val="14"/>
+      <color rgb="FF595959"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -127,8 +126,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -202,13 +205,13 @@
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF404040"/>
+      <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart169.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart81.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -291,7 +294,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$3:$O$3</c:f>
+              <c:f>Sheet1!$T$3:$X$3</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -314,21 +317,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$9:$O$9</c:f>
+              <c:f>Sheet1!$T$9:$X$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>15384</c:v>
+                  <c:v>3233.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16677.6</c:v>
+                  <c:v>5111.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19016</c:v>
+                  <c:v>8714.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23250.4</c:v>
+                  <c:v>16964.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>31891.2</c:v>
@@ -339,11 +342,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="52449310"/>
-        <c:axId val="93805801"/>
+        <c:axId val="29921714"/>
+        <c:axId val="70634131"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52449310"/>
+        <c:axId val="29921714"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -417,14 +420,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93805801"/>
+        <c:crossAx val="70634131"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93805801"/>
+        <c:axId val="70634131"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -505,7 +508,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52449310"/>
+        <c:crossAx val="29921714"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -533,7 +536,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart170.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart82.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -616,7 +619,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$3:$O$3</c:f>
+              <c:f>Sheet1!$T$3:$X$3</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -639,21 +642,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$4:$O$4</c:f>
+              <c:f>Sheet1!$T$4:$X$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.201276</c:v>
+                  <c:v>0.0324544</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2053736</c:v>
+                  <c:v>0.0605808</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2183518</c:v>
+                  <c:v>0.1050194</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2500994</c:v>
+                  <c:v>0.182725</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.336508</c:v>
@@ -664,11 +667,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="5917297"/>
-        <c:axId val="59899320"/>
+        <c:axId val="45424144"/>
+        <c:axId val="23105685"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="5917297"/>
+        <c:axId val="45424144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -742,14 +745,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59899320"/>
+        <c:crossAx val="23105685"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59899320"/>
+        <c:axId val="23105685"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -830,7 +833,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5917297"/>
+        <c:crossAx val="45424144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -858,7 +861,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart171.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart83.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -941,7 +944,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$I$39:$M$39</c:f>
+              <c:f>Sheet1!$T$39:$X$39</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -964,7 +967,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$40:$M$40</c:f>
+              <c:f>Sheet1!$T$40:$X$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -989,11 +992,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="32002640"/>
-        <c:axId val="85759218"/>
+        <c:axId val="66627761"/>
+        <c:axId val="49403046"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="32002640"/>
+        <c:axId val="66627761"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1067,14 +1070,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85759218"/>
+        <c:crossAx val="49403046"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85759218"/>
+        <c:axId val="49403046"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1155,7 +1158,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32002640"/>
+        <c:crossAx val="66627761"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1183,7 +1186,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart172.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart84.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1266,7 +1269,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$I$39:$M$39</c:f>
+              <c:f>Sheet1!$T$39:$X$39</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1289,7 +1292,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$45:$M$45</c:f>
+              <c:f>Sheet1!$T$45:$X$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1314,11 +1317,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="72473987"/>
-        <c:axId val="25494831"/>
+        <c:axId val="57063940"/>
+        <c:axId val="62790737"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="72473987"/>
+        <c:axId val="57063940"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1392,14 +1395,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25494831"/>
+        <c:crossAx val="62790737"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="25494831"/>
+        <c:axId val="62790737"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1480,7 +1483,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72473987"/>
+        <c:crossAx val="57063940"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1508,7 +1511,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart173.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart85.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1682,6 +1685,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1714,24 +1718,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$6:$Q$6</c:f>
+              <c:f>Sheet1!$V$6:$Z$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.2183518</c:v>
+                  <c:v>0.1050194</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4367036</c:v>
+                  <c:v>0.2100388</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8734072</c:v>
+                  <c:v>0.4200776</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7468144</c:v>
+                  <c:v>0.8401552</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4936288</c:v>
+                  <c:v>1.6803104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1806,15 +1810,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$4:$Q$4</c:f>
+              <c:f>Sheet1!$V$4:$Z$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.2183518</c:v>
+                  <c:v>0.1050194</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2500994</c:v>
+                  <c:v>0.182725</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.336508</c:v>
@@ -1823,7 +1827,7 @@
                   <c:v>0.7595552</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8546648</c:v>
+                  <c:v>1.8406308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1838,11 +1842,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="92406805"/>
-        <c:axId val="5923302"/>
+        <c:axId val="50345463"/>
+        <c:axId val="12281952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92406805"/>
+        <c:axId val="50345463"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1916,14 +1920,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5923302"/>
+        <c:crossAx val="12281952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="5923302"/>
+        <c:axId val="12281952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2004,7 +2008,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92406805"/>
+        <c:crossAx val="50345463"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2042,7 +2046,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart174.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart86.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2216,6 +2220,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2248,24 +2253,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$11:$Q$11</c:f>
+              <c:f>Sheet1!$V$11:$Z$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>19016</c:v>
+                  <c:v>8714.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38032</c:v>
+                  <c:v>17428.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76064</c:v>
+                  <c:v>34857.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>152128</c:v>
+                  <c:v>69715.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>304256</c:v>
+                  <c:v>139430.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2340,15 +2345,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$9:$Q$9</c:f>
+              <c:f>Sheet1!$V$9:$Z$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>19016</c:v>
+                  <c:v>8714.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23250.4</c:v>
+                  <c:v>16964.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>31891.2</c:v>
@@ -2357,7 +2362,7 @@
                   <c:v>62014.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>121998.4</c:v>
+                  <c:v>121996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2372,11 +2377,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="90356799"/>
-        <c:axId val="350460"/>
+        <c:axId val="12477639"/>
+        <c:axId val="34601129"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="90356799"/>
+        <c:axId val="12477639"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2450,14 +2455,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="350460"/>
+        <c:crossAx val="34601129"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="350460"/>
+        <c:axId val="34601129"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2538,7 +2543,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90356799"/>
+        <c:crossAx val="12477639"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2576,7 +2581,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart175.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart87.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2668,7 +2673,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$I$39:$M$39</c:f>
+              <c:f>Sheet1!$T$39:$X$39</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2760,7 +2765,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$I$39:$M$39</c:f>
+              <c:f>Sheet1!$T$39:$X$39</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2783,7 +2788,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$40:$M$40</c:f>
+              <c:f>Sheet1!$T$40:$X$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2815,11 +2820,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="64602139"/>
-        <c:axId val="30964247"/>
+        <c:axId val="4852078"/>
+        <c:axId val="2330447"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64602139"/>
+        <c:axId val="4852078"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2893,14 +2898,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30964247"/>
+        <c:crossAx val="2330447"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="30964247"/>
+        <c:axId val="2330447"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2981,7 +2986,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64602139"/>
+        <c:crossAx val="4852078"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3019,7 +3024,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart176.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart88.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3111,7 +3116,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$I$39:$M$39</c:f>
+              <c:f>Sheet1!$T$39:$X$39</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3203,7 +3208,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$I$39:$M$39</c:f>
+              <c:f>Sheet1!$T$39:$X$39</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3226,7 +3231,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$45:$M$45</c:f>
+              <c:f>Sheet1!$T$45:$X$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3258,11 +3263,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="43186997"/>
-        <c:axId val="96168801"/>
+        <c:axId val="93039197"/>
+        <c:axId val="54843119"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="43186997"/>
+        <c:axId val="93039197"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3336,14 +3341,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96168801"/>
+        <c:crossAx val="54843119"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96168801"/>
+        <c:axId val="54843119"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3424,7 +3429,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43186997"/>
+        <c:crossAx val="93039197"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3469,13 +3474,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>4680</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>160920</xdr:rowOff>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>309240</xdr:colOff>
+      <xdr:colOff>308880</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
+      <xdr:rowOff>149040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3483,8 +3488,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5128920" y="2271600"/>
-        <a:ext cx="4505040" cy="2742480"/>
+        <a:off x="5052600" y="2271600"/>
+        <a:ext cx="4438080" cy="2742120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3499,13 +3504,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>160920</xdr:rowOff>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>28080</xdr:colOff>
+      <xdr:colOff>27720</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
+      <xdr:rowOff>149040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3514,7 +3519,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="2271600"/>
-        <a:ext cx="4552200" cy="2742480"/>
+        <a:ext cx="4485240" cy="2742120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3529,13 +3534,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>14400</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>160920</xdr:rowOff>
+      <xdr:rowOff>151920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>42480</xdr:colOff>
+      <xdr:colOff>42120</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
+      <xdr:rowOff>141840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3544,7 +3549,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="14400" y="8100720"/>
-        <a:ext cx="4552200" cy="2742840"/>
+        <a:ext cx="4485240" cy="2742480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3559,13 +3564,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>4680</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>160920</xdr:rowOff>
+      <xdr:rowOff>151920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>309240</xdr:colOff>
+      <xdr:colOff>308880</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
+      <xdr:rowOff>141840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3573,8 +3578,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5128920" y="8100720"/>
-        <a:ext cx="4505040" cy="2742840"/>
+        <a:off x="5052600" y="8100720"/>
+        <a:ext cx="4438080" cy="2742480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3589,13 +3594,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>97</xdr:row>
-      <xdr:rowOff>156240</xdr:rowOff>
+      <xdr:rowOff>147600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>28080</xdr:colOff>
+      <xdr:colOff>27720</xdr:colOff>
       <xdr:row>114</xdr:row>
-      <xdr:rowOff>146520</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3604,7 +3609,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="15873120"/>
-        <a:ext cx="4552200" cy="2742840"/>
+        <a:ext cx="4485240" cy="2742480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3619,13 +3624,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>4680</xdr:colOff>
       <xdr:row>97</xdr:row>
-      <xdr:rowOff>156240</xdr:rowOff>
+      <xdr:rowOff>147600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>309240</xdr:colOff>
+      <xdr:colOff>308880</xdr:colOff>
       <xdr:row>114</xdr:row>
-      <xdr:rowOff>146520</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3633,8 +3638,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5128920" y="15873120"/>
-        <a:ext cx="4505040" cy="2742840"/>
+        <a:off x="5052600" y="15873120"/>
+        <a:ext cx="4438080" cy="2742480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3649,13 +3654,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>14400</xdr:colOff>
       <xdr:row>115</xdr:row>
-      <xdr:rowOff>156240</xdr:rowOff>
+      <xdr:rowOff>147600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>42480</xdr:colOff>
+      <xdr:colOff>42120</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>146520</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3664,7 +3669,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="14400" y="18787680"/>
-        <a:ext cx="4552200" cy="2742840"/>
+        <a:ext cx="4485240" cy="2742480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3679,13 +3684,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>4680</xdr:colOff>
       <xdr:row>115</xdr:row>
-      <xdr:rowOff>156240</xdr:rowOff>
+      <xdr:rowOff>147600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>309240</xdr:colOff>
+      <xdr:colOff>308880</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>146520</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3693,8 +3698,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5128920" y="18787680"/>
-        <a:ext cx="4505040" cy="2742840"/>
+        <a:off x="5052600" y="18787680"/>
+        <a:ext cx="4438080" cy="2742480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3712,17 +3717,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B3:Q97"/>
+  <dimension ref="B3:Z97"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q110" activeCellId="0" sqref="Q110"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3730,45 +3735,69 @@
         <v>0</v>
       </c>
       <c r="C3" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="G3" s="0" t="n">
         <v>128</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="H3" s="0" t="n">
         <v>256</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="I3" s="0" t="n">
         <v>512</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="J3" s="0" t="n">
         <v>1024</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="K3" s="0" t="n">
         <v>2048</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="L3" s="0" t="n">
         <v>4096</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="M3" s="0" t="n">
         <v>8192</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="P3" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="T3" s="0" t="n">
         <v>128</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="U3" s="0" t="n">
         <v>256</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="V3" s="0" t="n">
         <v>512</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="W3" s="0" t="n">
         <v>1024</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="X3" s="0" t="n">
         <v>2048</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="Y3" s="0" t="n">
         <v>4096</v>
       </c>
-      <c r="Q3" s="0" t="n">
+      <c r="Z3" s="0" t="n">
         <v>8192</v>
       </c>
     </row>
@@ -3777,164 +3806,240 @@
         <v>1</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.205243</v>
+        <v>0.002831</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0.207426</v>
+        <v>0.005498</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>0.219818</v>
+        <v>0.009682</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0.247686</v>
+        <v>0.017923</v>
       </c>
       <c r="G4" s="0" t="n">
+        <v>0.031305</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0.062478</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0.103413</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0.186698</v>
+      </c>
+      <c r="K4" s="0" t="n">
         <v>0.334073</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="L4" s="0" t="n">
         <v>0.784489</v>
       </c>
-      <c r="I4" s="0" t="n">
-        <v>1.872509</v>
-      </c>
-      <c r="K4" s="0" t="n">
+      <c r="M4" s="0" t="n">
+        <v>1.841437</v>
+      </c>
+      <c r="P4" s="0" t="n">
         <f aca="false">SUM(C4:C8)/5</f>
-        <v>0.201276</v>
-      </c>
-      <c r="L4" s="0" t="n">
+        <v>0.0030708</v>
+      </c>
+      <c r="Q4" s="0" t="n">
         <f aca="false">SUM(D4:D8)/5</f>
-        <v>0.2053736</v>
-      </c>
-      <c r="M4" s="0" t="n">
+        <v>0.0052738</v>
+      </c>
+      <c r="R4" s="0" t="n">
         <f aca="false">SUM(E4:E8)/5</f>
-        <v>0.2183518</v>
-      </c>
-      <c r="N4" s="0" t="n">
+        <v>0.0097024</v>
+      </c>
+      <c r="S4" s="0" t="n">
         <f aca="false">SUM(F4:F8)/5</f>
-        <v>0.2500994</v>
-      </c>
-      <c r="O4" s="0" t="n">
+        <v>0.0170082</v>
+      </c>
+      <c r="T4" s="0" t="n">
         <f aca="false">SUM(G4:G8)/5</f>
+        <v>0.0324544</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <f aca="false">SUM(H4:H8)/5</f>
+        <v>0.0605808</v>
+      </c>
+      <c r="V4" s="0" t="n">
+        <f aca="false">SUM(I4:I8)/5</f>
+        <v>0.1050194</v>
+      </c>
+      <c r="W4" s="0" t="n">
+        <f aca="false">SUM(J4:J8)/5</f>
+        <v>0.182725</v>
+      </c>
+      <c r="X4" s="0" t="n">
+        <f aca="false">SUM(K4:K8)/5</f>
         <v>0.336508</v>
       </c>
-      <c r="P4" s="0" t="n">
-        <f aca="false">SUM(H4:H8)/5</f>
+      <c r="Y4" s="0" t="n">
+        <f aca="false">SUM(L4:L8)/5</f>
         <v>0.7595552</v>
       </c>
-      <c r="Q4" s="0" t="n">
-        <f aca="false">SUM(I4:I8)/5</f>
-        <v>1.8546648</v>
+      <c r="Z4" s="0" t="n">
+        <f aca="false">SUM(M4:M8)/5</f>
+        <v>1.8406308</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="n">
-        <v>0.206292</v>
+        <v>0.003022</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0.20118</v>
+        <v>0.005094</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>0.216655</v>
+        <v>0.009652</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>0.249785</v>
+        <v>0.015966</v>
       </c>
       <c r="G5" s="0" t="n">
+        <v>0.03097</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.060217</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0.105875</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0.177968</v>
+      </c>
+      <c r="K5" s="0" t="n">
         <v>0.337644</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="L5" s="0" t="n">
         <v>0.745514</v>
       </c>
-      <c r="I5" s="0" t="n">
-        <v>1.857927</v>
+      <c r="M5" s="0" t="n">
+        <v>1.830737</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="n">
-        <v>0.199188</v>
+        <v>0.003202</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>0.208268</v>
+        <v>0.005521</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>0.218262</v>
+        <v>0.009681</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>0.254191</v>
+        <v>0.016628</v>
       </c>
       <c r="G6" s="0" t="n">
+        <v>0.032898</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.060746</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0.106092</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0.172765</v>
+      </c>
+      <c r="K6" s="0" t="n">
         <v>0.337848</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="L6" s="0" t="n">
         <v>0.743937</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="M6" s="0" t="n">
         <v>1.845487</v>
       </c>
-      <c r="M6" s="0" t="n">
-        <f aca="false">M4</f>
-        <v>0.2183518</v>
-      </c>
-      <c r="N6" s="0" t="n">
-        <f aca="false">2 * M6</f>
-        <v>0.4367036</v>
-      </c>
-      <c r="O6" s="0" t="n">
-        <f aca="false">2 * N6</f>
-        <v>0.8734072</v>
-      </c>
-      <c r="P6" s="0" t="n">
-        <f aca="false">2 * O6</f>
-        <v>1.7468144</v>
-      </c>
-      <c r="Q6" s="0" t="n">
-        <f aca="false">2 * P6</f>
-        <v>3.4936288</v>
+      <c r="V6" s="0" t="n">
+        <f aca="false">V4</f>
+        <v>0.1050194</v>
+      </c>
+      <c r="W6" s="0" t="n">
+        <f aca="false">2 * V6</f>
+        <v>0.2100388</v>
+      </c>
+      <c r="X6" s="0" t="n">
+        <f aca="false">2 * W6</f>
+        <v>0.4200776</v>
+      </c>
+      <c r="Y6" s="0" t="n">
+        <f aca="false">2 * X6</f>
+        <v>0.8401552</v>
+      </c>
+      <c r="Z6" s="0" t="n">
+        <f aca="false">2 * Y6</f>
+        <v>1.6803104</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="n">
-        <v>0.198561</v>
+        <v>0.003143</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0.204588</v>
+        <v>0.005126</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>0.218351</v>
+        <v>0.009518</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>0.250033</v>
+        <v>0.017114</v>
       </c>
       <c r="G7" s="0" t="n">
+        <v>0.034931</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0.058588</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0.103253</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0.184701</v>
+      </c>
+      <c r="K7" s="0" t="n">
         <v>0.337415</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="L7" s="0" t="n">
         <v>0.780781</v>
       </c>
-      <c r="I7" s="0" t="n">
-        <v>1.852399</v>
+      <c r="M7" s="0" t="n">
+        <v>1.840491</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="n">
-        <v>0.197096</v>
+        <v>0.003156</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>0.205406</v>
+        <v>0.00513</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>0.218673</v>
+        <v>0.009979</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>0.248802</v>
+        <v>0.01741</v>
       </c>
       <c r="G8" s="0" t="n">
+        <v>0.032168</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0.060875</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0.106464</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0.191493</v>
+      </c>
+      <c r="K8" s="0" t="n">
         <v>0.33556</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="L8" s="0" t="n">
         <v>0.743055</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="M8" s="0" t="n">
         <v>1.845002</v>
       </c>
     </row>
@@ -3943,415 +4048,668 @@
         <v>2</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>15400</v>
+        <v>628</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>16612</v>
+        <v>628</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>19036</v>
+        <v>2124</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>23244</v>
+        <v>2508</v>
       </c>
       <c r="G9" s="0" t="n">
+        <v>3268</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>5076</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>8704</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>17000</v>
+      </c>
+      <c r="K9" s="0" t="n">
         <v>31936</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="L9" s="0" t="n">
         <v>61960</v>
       </c>
-      <c r="I9" s="0" t="n">
-        <v>121928</v>
-      </c>
-      <c r="K9" s="0" t="n">
+      <c r="M9" s="0" t="n">
+        <v>121964</v>
+      </c>
+      <c r="P9" s="0" t="n">
         <f aca="false">SUM(C9:C13)/5</f>
-        <v>15384</v>
-      </c>
-      <c r="L9" s="0" t="n">
+        <v>603.2</v>
+      </c>
+      <c r="Q9" s="0" t="n">
         <f aca="false">SUM(D9:D13)/5</f>
-        <v>16677.6</v>
-      </c>
-      <c r="M9" s="0" t="n">
+        <v>607.2</v>
+      </c>
+      <c r="R9" s="0" t="n">
         <f aca="false">SUM(E9:E13)/5</f>
-        <v>19016</v>
-      </c>
-      <c r="N9" s="0" t="n">
+        <v>2121.6</v>
+      </c>
+      <c r="S9" s="0" t="n">
         <f aca="false">SUM(F9:F13)/5</f>
-        <v>23250.4</v>
-      </c>
-      <c r="O9" s="0" t="n">
+        <v>2447.2</v>
+      </c>
+      <c r="T9" s="0" t="n">
         <f aca="false">SUM(G9:G13)/5</f>
+        <v>3233.6</v>
+      </c>
+      <c r="U9" s="0" t="n">
+        <f aca="false">SUM(H9:H13)/5</f>
+        <v>5111.2</v>
+      </c>
+      <c r="V9" s="0" t="n">
+        <f aca="false">SUM(I9:I13)/5</f>
+        <v>8714.4</v>
+      </c>
+      <c r="W9" s="0" t="n">
+        <f aca="false">SUM(J9:J13)/5</f>
+        <v>16964.8</v>
+      </c>
+      <c r="X9" s="0" t="n">
+        <f aca="false">SUM(K9:K13)/5</f>
         <v>31891.2</v>
       </c>
-      <c r="P9" s="0" t="n">
-        <f aca="false">SUM(H9:H13)/5</f>
+      <c r="Y9" s="0" t="n">
+        <f aca="false">SUM(L9:L13)/5</f>
         <v>62014.4</v>
       </c>
-      <c r="Q9" s="0" t="n">
-        <f aca="false">SUM(I9:I13)/5</f>
-        <v>121998.4</v>
+      <c r="Z9" s="0" t="n">
+        <f aca="false">SUM(M9:M13)/5</f>
+        <v>121996</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="n">
-        <v>15264</v>
+        <v>620</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>16720</v>
+        <v>596</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>19008</v>
+        <v>2148</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>23244</v>
+        <v>2460</v>
       </c>
       <c r="G10" s="0" t="n">
+        <v>3276</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>5212</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>8704</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>16992</v>
+      </c>
+      <c r="K10" s="0" t="n">
         <v>31932</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="L10" s="0" t="n">
         <v>62052</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="M10" s="0" t="n">
         <v>121908</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="n">
-        <v>15428</v>
+        <v>580</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>16608</v>
+        <v>584</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>19092</v>
+        <v>2124</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>23264</v>
+        <v>2324</v>
       </c>
       <c r="G11" s="0" t="n">
+        <v>3248</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>4992</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>8700</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>16952</v>
+      </c>
+      <c r="K11" s="0" t="n">
         <v>31816</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="L11" s="0" t="n">
         <v>62048</v>
       </c>
-      <c r="I11" s="0" t="n">
-        <v>122092</v>
-      </c>
       <c r="M11" s="0" t="n">
-        <f aca="false">M9</f>
-        <v>19016</v>
-      </c>
-      <c r="N11" s="0" t="n">
-        <f aca="false">2 * M11</f>
-        <v>38032</v>
-      </c>
-      <c r="O11" s="0" t="n">
-        <f aca="false">2 * N11</f>
-        <v>76064</v>
-      </c>
-      <c r="P11" s="0" t="n">
-        <f aca="false">2 * O11</f>
-        <v>152128</v>
-      </c>
-      <c r="Q11" s="0" t="n">
-        <f aca="false">2 * P11</f>
-        <v>304256</v>
+        <v>122072</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <f aca="false">V9</f>
+        <v>8714.4</v>
+      </c>
+      <c r="W11" s="0" t="n">
+        <f aca="false">2 * V11</f>
+        <v>17428.8</v>
+      </c>
+      <c r="X11" s="0" t="n">
+        <f aca="false">2 * W11</f>
+        <v>34857.6</v>
+      </c>
+      <c r="Y11" s="0" t="n">
+        <f aca="false">2 * X11</f>
+        <v>69715.2</v>
+      </c>
+      <c r="Z11" s="0" t="n">
+        <f aca="false">2 * Y11</f>
+        <v>139430.4</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="n">
-        <v>15416</v>
+        <v>592</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>16748</v>
+        <v>616</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>18908</v>
+        <v>2112</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>23252</v>
+        <v>2484</v>
       </c>
       <c r="G12" s="0" t="n">
+        <v>3264</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>5124</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>8736</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>16852</v>
+      </c>
+      <c r="K12" s="0" t="n">
         <v>31956</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="L12" s="0" t="n">
         <v>62028</v>
       </c>
-      <c r="I12" s="0" t="n">
-        <v>122072</v>
+      <c r="M12" s="0" t="n">
+        <v>122044</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="n">
-        <v>15412</v>
+        <v>596</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>16700</v>
+        <v>612</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>19036</v>
+        <v>2100</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>23248</v>
+        <v>2460</v>
       </c>
       <c r="G13" s="0" t="n">
+        <v>3112</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>5152</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>8728</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>17028</v>
+      </c>
+      <c r="K13" s="0" t="n">
         <v>31816</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="L13" s="0" t="n">
         <v>61984</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="M13" s="0" t="n">
         <v>121992</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
         <v>0</v>
       </c>
       <c r="C39" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="G39" s="0" t="n">
         <v>128</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="H39" s="0" t="n">
         <v>256</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="I39" s="0" t="n">
         <v>512</v>
       </c>
-      <c r="F39" s="0" t="n">
+      <c r="J39" s="0" t="n">
         <v>1024</v>
       </c>
-      <c r="G39" s="0" t="n">
+      <c r="K39" s="0" t="n">
         <v>2048</v>
       </c>
-      <c r="I39" s="0" t="n">
+      <c r="P39" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q39" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="R39" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="S39" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="T39" s="0" t="n">
         <v>128</v>
       </c>
-      <c r="J39" s="0" t="n">
+      <c r="U39" s="0" t="n">
         <v>256</v>
       </c>
-      <c r="K39" s="0" t="n">
+      <c r="V39" s="0" t="n">
         <v>512</v>
       </c>
-      <c r="L39" s="0" t="n">
+      <c r="W39" s="0" t="n">
         <v>1024</v>
       </c>
-      <c r="M39" s="0" t="n">
+      <c r="X39" s="0" t="n">
         <v>2048</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C40" s="0" t="n">
+        <v>0.001477</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>0.002423</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>0.003983</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>0.007417</v>
+      </c>
+      <c r="G40" s="0" t="n">
         <v>0.016797</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="H40" s="0" t="n">
         <v>0.037217</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="I40" s="0" t="n">
         <v>0.07564</v>
       </c>
-      <c r="F40" s="0" t="n">
+      <c r="J40" s="0" t="n">
         <v>0.142829</v>
       </c>
-      <c r="G40" s="0" t="n">
+      <c r="K40" s="0" t="n">
         <v>0.367835</v>
       </c>
-      <c r="I40" s="0" t="n">
+      <c r="P40" s="0" t="n">
         <f aca="false">SUM(C40:C44)/5</f>
+        <v>0.00149</v>
+      </c>
+      <c r="Q40" s="0" t="n">
+        <f aca="false">SUM(D40:D44)/5</f>
+        <v>0.002363</v>
+      </c>
+      <c r="R40" s="0" t="n">
+        <f aca="false">SUM(E40:E44)/5</f>
+        <v>0.0041752</v>
+      </c>
+      <c r="S40" s="0" t="n">
+        <f aca="false">SUM(F40:F44)/5</f>
+        <v>0.0081808</v>
+      </c>
+      <c r="T40" s="0" t="n">
+        <f aca="false">SUM(G40:G44)/5</f>
         <v>0.016342</v>
       </c>
-      <c r="J40" s="0" t="n">
-        <f aca="false">SUM(D40:D44)/5</f>
+      <c r="U40" s="0" t="n">
+        <f aca="false">SUM(H40:H44)/5</f>
         <v>0.0372486</v>
       </c>
-      <c r="K40" s="0" t="n">
-        <f aca="false">SUM(E40:E44)/5</f>
+      <c r="V40" s="0" t="n">
+        <f aca="false">SUM(I40:I44)/5</f>
         <v>0.0759478</v>
       </c>
-      <c r="L40" s="0" t="n">
-        <f aca="false">SUM(F40:F44)/5</f>
+      <c r="W40" s="0" t="n">
+        <f aca="false">SUM(J40:J44)/5</f>
         <v>0.1483914</v>
       </c>
-      <c r="M40" s="0" t="n">
-        <f aca="false">SUM(G40:G44)/5</f>
+      <c r="X40" s="0" t="n">
+        <f aca="false">SUM(K40:K44)/5</f>
         <v>0.3683284</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="n">
+        <v>0.001524</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>0.002347</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>0.003922</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>0.008113</v>
+      </c>
+      <c r="G41" s="0" t="n">
         <v>0.015775</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="H41" s="0" t="n">
         <v>0.036768</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="I41" s="0" t="n">
         <v>0.073292</v>
       </c>
-      <c r="F41" s="0" t="n">
+      <c r="J41" s="0" t="n">
         <v>0.148786</v>
       </c>
-      <c r="G41" s="0" t="n">
+      <c r="K41" s="0" t="n">
         <v>0.374339</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="0" t="n">
+        <v>0.001437</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>0.002408</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>0.004572</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>0.008025</v>
+      </c>
+      <c r="G42" s="0" t="n">
         <v>0.015765</v>
       </c>
-      <c r="D42" s="0" t="n">
+      <c r="H42" s="0" t="n">
         <v>0.037784</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="I42" s="0" t="n">
         <v>0.079325</v>
       </c>
-      <c r="F42" s="0" t="n">
+      <c r="J42" s="0" t="n">
         <v>0.156959</v>
       </c>
-      <c r="G42" s="0" t="n">
+      <c r="K42" s="0" t="n">
         <v>0.376127</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="0" t="n">
+        <v>0.001458</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>0.002401</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>0.00414</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <v>0.008339</v>
+      </c>
+      <c r="G43" s="0" t="n">
         <v>0.017292</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="H43" s="0" t="n">
         <v>0.037445</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="I43" s="0" t="n">
         <v>0.073683</v>
       </c>
-      <c r="F43" s="0" t="n">
+      <c r="J43" s="0" t="n">
         <v>0.150312</v>
       </c>
-      <c r="G43" s="0" t="n">
+      <c r="K43" s="0" t="n">
         <v>0.36577</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="0" t="n">
+        <v>0.001554</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>0.002236</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>0.004259</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>0.00901</v>
+      </c>
+      <c r="G44" s="0" t="n">
         <v>0.016081</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="H44" s="0" t="n">
         <v>0.037029</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="I44" s="0" t="n">
         <v>0.077799</v>
       </c>
-      <c r="F44" s="0" t="n">
+      <c r="J44" s="0" t="n">
         <v>0.143071</v>
       </c>
-      <c r="G44" s="1" t="n">
+      <c r="K44" s="2" t="n">
         <v>0.357571</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
         <v>2</v>
       </c>
       <c r="C45" s="0" t="n">
+        <v>612</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>624</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>2052</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>2168</v>
+      </c>
+      <c r="G45" s="0" t="n">
         <v>2684</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="H45" s="0" t="n">
         <v>3964</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="I45" s="0" t="n">
         <v>6328</v>
       </c>
-      <c r="F45" s="0" t="n">
+      <c r="J45" s="0" t="n">
         <v>10832</v>
       </c>
-      <c r="G45" s="0" t="n">
+      <c r="K45" s="0" t="n">
         <v>19800</v>
       </c>
-      <c r="I45" s="0" t="n">
+      <c r="P45" s="0" t="n">
         <f aca="false">SUM(C45:C49)/5</f>
+        <v>608</v>
+      </c>
+      <c r="Q45" s="0" t="n">
+        <f aca="false">SUM(D45:D49)/5</f>
+        <v>625.6</v>
+      </c>
+      <c r="R45" s="0" t="n">
+        <f aca="false">SUM(E45:E49)/5</f>
+        <v>2088</v>
+      </c>
+      <c r="S45" s="0" t="n">
+        <f aca="false">SUM(F45:F49)/5</f>
+        <v>2179.2</v>
+      </c>
+      <c r="T45" s="0" t="n">
+        <f aca="false">SUM(G45:G49)/5</f>
         <v>2644</v>
       </c>
-      <c r="J45" s="0" t="n">
-        <f aca="false">SUM(D45:D49)/5</f>
+      <c r="U45" s="0" t="n">
+        <f aca="false">SUM(H45:H49)/5</f>
         <v>3979.2</v>
       </c>
-      <c r="K45" s="0" t="n">
-        <f aca="false">SUM(E45:E49)/5</f>
+      <c r="V45" s="0" t="n">
+        <f aca="false">SUM(I45:I49)/5</f>
         <v>6248</v>
       </c>
-      <c r="L45" s="0" t="n">
-        <f aca="false">SUM(F45:F49)/5</f>
+      <c r="W45" s="0" t="n">
+        <f aca="false">SUM(J45:J49)/5</f>
         <v>10779.2</v>
       </c>
-      <c r="M45" s="0" t="n">
-        <f aca="false">SUM(G45:G49)/5</f>
+      <c r="X45" s="0" t="n">
+        <f aca="false">SUM(K45:K49)/5</f>
         <v>19796.8</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="0" t="n">
+        <v>596</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>628</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>2196</v>
+      </c>
+      <c r="G46" s="0" t="n">
         <v>2664</v>
       </c>
-      <c r="D46" s="0" t="n">
+      <c r="H46" s="0" t="n">
         <v>3984</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="I46" s="0" t="n">
         <v>6208</v>
       </c>
-      <c r="F46" s="0" t="n">
+      <c r="J46" s="0" t="n">
         <v>10688</v>
       </c>
-      <c r="G46" s="0" t="n">
+      <c r="K46" s="0" t="n">
         <v>19760</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="0" t="n">
+        <v>616</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>616</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>2100</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>2176</v>
+      </c>
+      <c r="G47" s="0" t="n">
         <v>2700</v>
       </c>
-      <c r="D47" s="0" t="n">
+      <c r="H47" s="0" t="n">
         <v>4020</v>
       </c>
-      <c r="E47" s="0" t="n">
+      <c r="I47" s="0" t="n">
         <v>6372</v>
       </c>
-      <c r="F47" s="0" t="n">
+      <c r="J47" s="0" t="n">
         <v>10744</v>
       </c>
-      <c r="G47" s="0" t="n">
+      <c r="K47" s="0" t="n">
         <v>19792</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="0" t="n">
+        <v>604</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>632</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>2144</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>2196</v>
+      </c>
+      <c r="G48" s="0" t="n">
         <v>2536</v>
       </c>
-      <c r="D48" s="0" t="n">
+      <c r="H48" s="0" t="n">
         <v>4012</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="I48" s="0" t="n">
         <v>6204</v>
       </c>
-      <c r="F48" s="0" t="n">
+      <c r="J48" s="0" t="n">
         <v>10816</v>
       </c>
-      <c r="G48" s="0" t="n">
+      <c r="K48" s="0" t="n">
         <v>19832</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="0" t="n">
+        <v>612</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>628</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>2124</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>2160</v>
+      </c>
+      <c r="G49" s="0" t="n">
         <v>2636</v>
       </c>
-      <c r="D49" s="0" t="n">
+      <c r="H49" s="0" t="n">
         <v>3916</v>
       </c>
-      <c r="E49" s="0" t="n">
+      <c r="I49" s="0" t="n">
         <v>6128</v>
       </c>
-      <c r="F49" s="0" t="n">
+      <c r="J49" s="0" t="n">
         <v>10816</v>
       </c>
-      <c r="G49" s="0" t="n">
+      <c r="K49" s="0" t="n">
         <v>19800</v>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\51100\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36027795-51B6-46F7-AE85-E0603D87191E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812B2558-CADE-40AB-AE53-9FD5D5EFB3DD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3539,6 +3539,36 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>The</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> number of processes</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8122,8 +8152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:Z97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X47" sqref="X47"/>
+    <sheetView tabSelected="1" topLeftCell="G41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V34" sqref="V34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
